--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56229.96798179518</v>
+        <v>11183962.64343351</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56229.96798179518</v>
+        <v>11183962.64343351</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22991.04489417304</v>
+        <v>2827223.202115305</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22991.04489417304</v>
+        <v>2827223.202115305</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495403247.858771</v>
+        <v>59538000.14100348</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12337.66627671001</v>
+        <v>1354813.186804078</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23853.56236077869</v>
+        <v>2581760.458384661</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35369.45844484737</v>
+        <v>3808707.729965248</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48344.97930221082</v>
+        <v>4894592.087722007</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60281.46347313541</v>
+        <v>6098697.345031711</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72217.94764405998</v>
+        <v>7302802.602341411</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84202.78422631175</v>
+        <v>8539520.364140434</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96143.27333381603</v>
+        <v>9767412.978464708</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108939.0291080833</v>
+        <v>10831596.26537491</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120647.3791519066</v>
+        <v>12059315.51381269</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132355.7291957301</v>
+        <v>13287034.76225045</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143774.3717264572</v>
+        <v>14502032.91921538</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155249.0029440522</v>
+        <v>15728172.82486732</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167685.4188802427</v>
+        <v>16817560.95048842</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183507.3407912208</v>
+        <v>17431901.61306246</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>270.9999999999304</v>
@@ -27052,13 +27052,13 @@
         <v>79.00000000006963</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>196.0000000000709</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>377</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>80</v>
